--- a/schema_definitions/notes_schema.xlsx
+++ b/schema_definitions/notes_schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsuveges/Project/gwas-template-services/schema_definitions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F2D429-E2B1-9A43-9CB6-BF99390BADE0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A360AD-4F24-9245-8C53-6E0695CD38C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{ED582597-DC63-654C-87F3-6CB4F7FD90A0}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>NAME</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Preliminary review|Review/secondary extraction|Post-publishing review|Trait|Initial extraction|Other|Duplication TAG</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
   </si>
 </sst>
 </file>
@@ -481,26 +484,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F5AB58-2CE3-8246-A104-E60B298CD92A}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="79.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="1"/>
-    <col min="6" max="6" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" style="1"/>
-    <col min="9" max="9" width="23.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="140.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="23.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="140.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,103 +512,120 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="b">
+      <c r="C2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="1" t="b">
+      <c r="C3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="I3" s="1" t="s">
+      <c r="G3" s="3"/>
+      <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="b">
+      <c r="C4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="I4" s="1" t="s">
+      <c r="G4" s="3"/>
+      <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="b">
+      <c r="C5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="I5" s="1" t="s">
+      <c r="G5" s="3"/>
+      <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>